--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3830.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3830.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195088414448505</v>
+        <v>3.075301170349121</v>
       </c>
       <c r="B1">
-        <v>1.631659287168689</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.766345995929678</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.591562041048309</v>
+        <v>3.016638517379761</v>
       </c>
       <c r="E1">
-        <v>1.608932616152886</v>
+        <v>2.530479669570923</v>
       </c>
     </row>
   </sheetData>
